--- a/Code/Results/Cases/Case_1_73/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_73/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9911522756813615</v>
+        <v>1.031186781413481</v>
       </c>
       <c r="D2">
-        <v>1.036429772357713</v>
+        <v>1.046052797583158</v>
       </c>
       <c r="E2">
-        <v>1.010955478036127</v>
+        <v>1.041087398513434</v>
       </c>
       <c r="F2">
-        <v>1.027348884134133</v>
+        <v>1.052770118649455</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.055008920566585</v>
+        <v>1.037582161836648</v>
       </c>
       <c r="J2">
-        <v>1.013600879965572</v>
+        <v>1.036323893694298</v>
       </c>
       <c r="K2">
-        <v>1.047403881905244</v>
+        <v>1.04881931334453</v>
       </c>
       <c r="L2">
-        <v>1.022264266778449</v>
+        <v>1.043867906631105</v>
       </c>
       <c r="M2">
-        <v>1.038439913587678</v>
+        <v>1.055517932895154</v>
       </c>
       <c r="N2">
-        <v>1.015040309476769</v>
+        <v>1.037795592491356</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.996327115119643</v>
+        <v>1.032278969874602</v>
       </c>
       <c r="D3">
-        <v>1.039802074903437</v>
+        <v>1.04671115644408</v>
       </c>
       <c r="E3">
-        <v>1.015190485872828</v>
+        <v>1.042019024906488</v>
       </c>
       <c r="F3">
-        <v>1.031716847551764</v>
+        <v>1.053697046378819</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.056234242047664</v>
+        <v>1.037720198841322</v>
       </c>
       <c r="J3">
-        <v>1.016918409938937</v>
+        <v>1.037057124431516</v>
       </c>
       <c r="K3">
-        <v>1.049949802220803</v>
+        <v>1.04928963547387</v>
       </c>
       <c r="L3">
-        <v>1.025632622121295</v>
+        <v>1.044609770993168</v>
       </c>
       <c r="M3">
-        <v>1.04195937261365</v>
+        <v>1.056257479956996</v>
       </c>
       <c r="N3">
-        <v>1.018362550723222</v>
+        <v>1.038529864500323</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9996011173592665</v>
+        <v>1.032985894820101</v>
       </c>
       <c r="D4">
-        <v>1.041927518311699</v>
+        <v>1.047135482121147</v>
       </c>
       <c r="E4">
-        <v>1.017873815109686</v>
+        <v>1.042621996250841</v>
       </c>
       <c r="F4">
-        <v>1.034478403621596</v>
+        <v>1.054296070982885</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05698977655472</v>
+        <v>1.037806978846222</v>
       </c>
       <c r="J4">
-        <v>1.019015032102064</v>
+        <v>1.037531238224884</v>
       </c>
       <c r="K4">
-        <v>1.051544938854826</v>
+        <v>1.049591608701795</v>
       </c>
       <c r="L4">
-        <v>1.027761200868264</v>
+        <v>1.045089329143757</v>
       </c>
       <c r="M4">
-        <v>1.04417777819695</v>
+        <v>1.056734630611375</v>
       </c>
       <c r="N4">
-        <v>1.020462150330307</v>
+        <v>1.039004651589659</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.000960404640898</v>
+        <v>1.033283135601251</v>
       </c>
       <c r="D5">
-        <v>1.042807856300243</v>
+        <v>1.047313465581201</v>
       </c>
       <c r="E5">
-        <v>1.018988741189059</v>
+        <v>1.042875519870378</v>
       </c>
       <c r="F5">
-        <v>1.035624358357122</v>
+        <v>1.054547717948916</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057298635246318</v>
+        <v>1.037842852324987</v>
       </c>
       <c r="J5">
-        <v>1.019884903335145</v>
+        <v>1.037730475053653</v>
       </c>
       <c r="K5">
-        <v>1.052203332832795</v>
+        <v>1.049717992634705</v>
       </c>
       <c r="L5">
-        <v>1.028644272202269</v>
+        <v>1.045290820470777</v>
       </c>
       <c r="M5">
-        <v>1.045096718714098</v>
+        <v>1.056934891925033</v>
       </c>
       <c r="N5">
-        <v>1.021333256880315</v>
+        <v>1.039204171357579</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.001187652283202</v>
+        <v>1.033333046547427</v>
       </c>
       <c r="D6">
-        <v>1.042954905235524</v>
+        <v>1.047343326102271</v>
       </c>
       <c r="E6">
-        <v>1.019175185384421</v>
+        <v>1.042918089603056</v>
       </c>
       <c r="F6">
-        <v>1.035815903743077</v>
+        <v>1.054589959818853</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057349984537899</v>
+        <v>1.037848839909432</v>
       </c>
       <c r="J6">
-        <v>1.020030293405833</v>
+        <v>1.037763923058453</v>
       </c>
       <c r="K6">
-        <v>1.052313173141115</v>
+        <v>1.049739179843321</v>
       </c>
       <c r="L6">
-        <v>1.028791864557912</v>
+        <v>1.045324644995833</v>
       </c>
       <c r="M6">
-        <v>1.045250222835647</v>
+        <v>1.056968497132428</v>
       </c>
       <c r="N6">
-        <v>1.021478853421579</v>
+        <v>1.039237666862381</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9996193464990433</v>
+        <v>1.032989866371071</v>
       </c>
       <c r="D7">
-        <v>1.041939332820431</v>
+        <v>1.047137861930787</v>
       </c>
       <c r="E7">
-        <v>1.017888763815687</v>
+        <v>1.042625383711304</v>
       </c>
       <c r="F7">
-        <v>1.034493774220628</v>
+        <v>1.054299434222416</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.056993937774985</v>
+        <v>1.037807460582956</v>
       </c>
       <c r="J7">
-        <v>1.019026700189292</v>
+        <v>1.037533900754268</v>
       </c>
       <c r="K7">
-        <v>1.051553783897824</v>
+        <v>1.049593299674435</v>
       </c>
       <c r="L7">
-        <v>1.027773046271702</v>
+        <v>1.045092021933024</v>
       </c>
       <c r="M7">
-        <v>1.044190110317063</v>
+        <v>1.056737307822023</v>
       </c>
       <c r="N7">
-        <v>1.020473834987557</v>
+        <v>1.039007317900142</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9929170046669286</v>
+        <v>1.031555849103826</v>
       </c>
       <c r="D8">
-        <v>1.037581417336284</v>
+        <v>1.046275639171851</v>
       </c>
       <c r="E8">
-        <v>1.012398832680466</v>
+        <v>1.041402215224848</v>
       </c>
       <c r="F8">
-        <v>1.028838794193561</v>
+        <v>1.053083534830746</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.055430858302416</v>
+        <v>1.037629337272505</v>
       </c>
       <c r="J8">
-        <v>1.014732683834099</v>
+        <v>1.036571761758477</v>
       </c>
       <c r="K8">
-        <v>1.048275294988086</v>
+        <v>1.048978748017899</v>
       </c>
       <c r="L8">
-        <v>1.023413432793001</v>
+        <v>1.044118721744776</v>
       </c>
       <c r="M8">
-        <v>1.039641796712782</v>
+        <v>1.05576815257797</v>
       </c>
       <c r="N8">
-        <v>1.016173720636609</v>
+        <v>1.038043812556617</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9805014990930998</v>
+        <v>1.029030494255995</v>
       </c>
       <c r="D9">
-        <v>1.029450673097069</v>
+        <v>1.044743525340819</v>
       </c>
       <c r="E9">
-        <v>1.002264252148853</v>
+        <v>1.03924798886858</v>
       </c>
       <c r="F9">
-        <v>1.018353101362361</v>
+        <v>1.050935195187046</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.052382449663031</v>
+        <v>1.037296055344834</v>
       </c>
       <c r="J9">
-        <v>1.006762100373232</v>
+        <v>1.034873792010091</v>
       </c>
       <c r="K9">
-        <v>1.042083344382588</v>
+        <v>1.047877841962531</v>
       </c>
       <c r="L9">
-        <v>1.015320699950422</v>
+        <v>1.042400007565848</v>
       </c>
       <c r="M9">
-        <v>1.031155268307465</v>
+        <v>1.05404980998189</v>
       </c>
       <c r="N9">
-        <v>1.008191818032989</v>
+        <v>1.036343431496428</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9717651284313584</v>
+        <v>1.027347959231008</v>
       </c>
       <c r="D10">
-        <v>1.023700193160365</v>
+        <v>1.043713627645279</v>
       </c>
       <c r="E10">
-        <v>0.9951620459298546</v>
+        <v>1.037812648739889</v>
       </c>
       <c r="F10">
-        <v>1.010975550975036</v>
+        <v>1.049499151066675</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.05014014228265</v>
+        <v>1.03706087357037</v>
       </c>
       <c r="J10">
-        <v>1.001145561642548</v>
+        <v>1.033740105545147</v>
       </c>
       <c r="K10">
-        <v>1.037654324100707</v>
+        <v>1.047131890842365</v>
       </c>
       <c r="L10">
-        <v>1.009619204017307</v>
+        <v>1.041251783410779</v>
       </c>
       <c r="M10">
-        <v>1.025149426342426</v>
+        <v>1.052897202090208</v>
       </c>
       <c r="N10">
-        <v>1.002567303173082</v>
+        <v>1.035208135066668</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9678602629579452</v>
+        <v>1.026619643232138</v>
       </c>
       <c r="D11">
-        <v>1.021125441475571</v>
+        <v>1.043265676427916</v>
       </c>
       <c r="E11">
-        <v>0.9919958202200596</v>
+        <v>1.037191329511544</v>
       </c>
       <c r="F11">
-        <v>1.007680135783702</v>
+        <v>1.048876434454712</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04911634264139</v>
+        <v>1.036955966051055</v>
       </c>
       <c r="J11">
-        <v>0.9986340314956912</v>
+        <v>1.033248803899242</v>
       </c>
       <c r="K11">
-        <v>1.035659664440949</v>
+        <v>1.046806052258824</v>
       </c>
       <c r="L11">
-        <v>1.007070278907069</v>
+        <v>1.04075402222145</v>
       </c>
       <c r="M11">
-        <v>1.022458654962348</v>
+        <v>1.052396450239042</v>
       </c>
       <c r="N11">
-        <v>1.00005220636534</v>
+        <v>1.034716135716073</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9663902857046501</v>
+        <v>1.026349148643929</v>
       </c>
       <c r="D12">
-        <v>1.020155730295419</v>
+        <v>1.043098988564485</v>
       </c>
       <c r="E12">
-        <v>0.9908052567998732</v>
+        <v>1.036960573240409</v>
       </c>
       <c r="F12">
-        <v>1.006440073443991</v>
+        <v>1.048644995394362</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048727831845444</v>
+        <v>1.036916537946219</v>
       </c>
       <c r="J12">
-        <v>0.9976884713219101</v>
+        <v>1.033066251358962</v>
       </c>
       <c r="K12">
-        <v>1.034906704631694</v>
+        <v>1.046684596284201</v>
       </c>
       <c r="L12">
-        <v>1.006110759433296</v>
+        <v>1.040569045860007</v>
       </c>
       <c r="M12">
-        <v>1.021444923199802</v>
+        <v>1.052210199352007</v>
       </c>
       <c r="N12">
-        <v>0.9991053033876541</v>
+        <v>1.034533323930247</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9667065054914886</v>
+        <v>1.026407169103736</v>
       </c>
       <c r="D13">
-        <v>1.020364350160321</v>
+        <v>1.043134757177028</v>
       </c>
       <c r="E13">
-        <v>0.9910613062211484</v>
+        <v>1.037010069908735</v>
       </c>
       <c r="F13">
-        <v>1.006706809228125</v>
+        <v>1.048694645926411</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048811545775654</v>
+        <v>1.036925016247346</v>
       </c>
       <c r="J13">
-        <v>0.997891882523098</v>
+        <v>1.033105412268735</v>
       </c>
       <c r="K13">
-        <v>1.035068771121926</v>
+        <v>1.046710668217208</v>
       </c>
       <c r="L13">
-        <v>1.006317167695098</v>
+        <v>1.040608727790104</v>
       </c>
       <c r="M13">
-        <v>1.021663029358697</v>
+        <v>1.052250162070684</v>
       </c>
       <c r="N13">
-        <v>0.9993090034560795</v>
+        <v>1.034572540453004</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9677391600967572</v>
+        <v>1.026597283366612</v>
       </c>
       <c r="D14">
-        <v>1.021045560485181</v>
+        <v>1.043251904045022</v>
       </c>
       <c r="E14">
-        <v>0.9918977084026376</v>
+        <v>1.037172254524914</v>
       </c>
       <c r="F14">
-        <v>1.007577963307077</v>
+        <v>1.048857306366427</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.049084397745532</v>
+        <v>1.036952716306895</v>
       </c>
       <c r="J14">
-        <v>0.9985561339379639</v>
+        <v>1.03323371529819</v>
       </c>
       <c r="K14">
-        <v>1.035597673523117</v>
+        <v>1.046796021333534</v>
       </c>
       <c r="L14">
-        <v>1.006991228741944</v>
+        <v>1.040738733763969</v>
       </c>
       <c r="M14">
-        <v>1.022375154759303</v>
+        <v>1.052381059764815</v>
       </c>
       <c r="N14">
-        <v>0.9999741981841455</v>
+        <v>1.034701025687477</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9683727858902472</v>
+        <v>1.026714423580039</v>
       </c>
       <c r="D15">
-        <v>1.021463491065892</v>
+        <v>1.043324042540862</v>
       </c>
       <c r="E15">
-        <v>0.9924110979970179</v>
+        <v>1.037272185722157</v>
       </c>
       <c r="F15">
-        <v>1.008112563853487</v>
+        <v>1.048957509049416</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049251411959508</v>
+        <v>1.036969722193182</v>
       </c>
       <c r="J15">
-        <v>0.9989637003269901</v>
+        <v>1.03331275891654</v>
       </c>
       <c r="K15">
-        <v>1.035921934605772</v>
+        <v>1.046848553921634</v>
       </c>
       <c r="L15">
-        <v>1.007404830715616</v>
+        <v>1.04081882338965</v>
       </c>
       <c r="M15">
-        <v>1.022812007083636</v>
+        <v>1.052461677136097</v>
       </c>
       <c r="N15">
-        <v>1.000382343364192</v>
+        <v>1.034780181556832</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9720216106928111</v>
+        <v>1.027396300020935</v>
       </c>
       <c r="D16">
-        <v>1.023869235050401</v>
+        <v>1.043743314705873</v>
       </c>
       <c r="E16">
-        <v>0.9953701932377789</v>
+        <v>1.037853887743985</v>
       </c>
       <c r="F16">
-        <v>1.011192060941091</v>
+        <v>1.049540459826483</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.050206950976941</v>
+        <v>1.03706777127588</v>
       </c>
       <c r="J16">
-        <v>1.001310508085399</v>
+        <v>1.033772703027446</v>
       </c>
       <c r="K16">
-        <v>1.037785041316644</v>
+        <v>1.047153456009062</v>
       </c>
       <c r="L16">
-        <v>1.009786621266623</v>
+        <v>1.041284806146678</v>
       </c>
       <c r="M16">
-        <v>1.025326044391076</v>
+        <v>1.052930400329741</v>
       </c>
       <c r="N16">
-        <v>1.002732483858801</v>
+        <v>1.035240778841132</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9742769450610609</v>
+        <v>1.027824085016654</v>
       </c>
       <c r="D17">
-        <v>1.025355193614788</v>
+        <v>1.04400577897598</v>
       </c>
       <c r="E17">
-        <v>0.9972014499588523</v>
+        <v>1.038218825904592</v>
       </c>
       <c r="F17">
-        <v>1.013096164286683</v>
+        <v>1.049905889080039</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050791988453694</v>
+        <v>1.037128452908192</v>
       </c>
       <c r="J17">
-        <v>1.00276081741419</v>
+        <v>1.034061104643036</v>
       </c>
       <c r="K17">
-        <v>1.038932794837454</v>
+        <v>1.047343954378875</v>
       </c>
       <c r="L17">
-        <v>1.011258726470186</v>
+        <v>1.041576951764656</v>
       </c>
       <c r="M17">
-        <v>1.026878401681396</v>
+        <v>1.053223972800395</v>
       </c>
       <c r="N17">
-        <v>1.004184852793191</v>
+        <v>1.035529590020096</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9755807633245616</v>
+        <v>1.028073627264476</v>
       </c>
       <c r="D18">
-        <v>1.026213793288433</v>
+        <v>1.044158677001209</v>
       </c>
       <c r="E18">
-        <v>0.9982608773956352</v>
+        <v>1.038431706706463</v>
       </c>
       <c r="F18">
-        <v>1.01419712162588</v>
+        <v>1.050118950886188</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051128150452487</v>
+        <v>1.03716355099715</v>
       </c>
       <c r="J18">
-        <v>1.003599136105605</v>
+        <v>1.03422928506406</v>
       </c>
       <c r="K18">
-        <v>1.039594879967749</v>
+        <v>1.047454795064471</v>
       </c>
       <c r="L18">
-        <v>1.012109698037508</v>
+        <v>1.041747300096531</v>
       </c>
       <c r="M18">
-        <v>1.027775212906172</v>
+        <v>1.053395047952195</v>
       </c>
       <c r="N18">
-        <v>1.005024361993305</v>
+        <v>1.035698009276608</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9760233857051888</v>
+        <v>1.028158718555416</v>
       </c>
       <c r="D19">
-        <v>1.026505191265124</v>
+        <v>1.044210778505609</v>
       </c>
       <c r="E19">
-        <v>0.9986206608070345</v>
+        <v>1.0385042966912</v>
       </c>
       <c r="F19">
-        <v>1.014570903237505</v>
+        <v>1.050191584691485</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.051241919519287</v>
+        <v>1.037175468225905</v>
       </c>
       <c r="J19">
-        <v>1.003883709090684</v>
+        <v>1.034286623563278</v>
       </c>
       <c r="K19">
-        <v>1.039819396833976</v>
+        <v>1.047492542397838</v>
       </c>
       <c r="L19">
-        <v>1.012398574468615</v>
+        <v>1.041805375091609</v>
       </c>
       <c r="M19">
-        <v>1.028079555321033</v>
+        <v>1.05345335287531</v>
       </c>
       <c r="N19">
-        <v>1.005309339104664</v>
+        <v>1.035755429203072</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9740361856002956</v>
+        <v>1.027778185412041</v>
       </c>
       <c r="D20">
-        <v>1.02519660993791</v>
+        <v>1.043977638990098</v>
       </c>
       <c r="E20">
-        <v>0.9970058804941367</v>
+        <v>1.038179669572031</v>
       </c>
       <c r="F20">
-        <v>1.012892878507066</v>
+        <v>1.049866690961244</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.050729746943614</v>
+        <v>1.037121973003885</v>
       </c>
       <c r="J20">
-        <v>1.002606006345979</v>
+        <v>1.034030165949969</v>
       </c>
       <c r="K20">
-        <v>1.03881041863727</v>
+        <v>1.047323544017372</v>
       </c>
       <c r="L20">
-        <v>1.011101582994993</v>
+        <v>1.041545613018439</v>
       </c>
       <c r="M20">
-        <v>1.026712748341709</v>
+        <v>1.053192491869008</v>
       </c>
       <c r="N20">
-        <v>1.004029821875507</v>
+        <v>1.035498607390536</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9674356186152268</v>
+        <v>1.026541298509595</v>
       </c>
       <c r="D21">
-        <v>1.020845334152239</v>
+        <v>1.043217415450054</v>
       </c>
       <c r="E21">
-        <v>0.9916518156655448</v>
+        <v>1.037124494384061</v>
       </c>
       <c r="F21">
-        <v>1.007321878869564</v>
+        <v>1.048809410624099</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049004279110114</v>
+        <v>1.036944572043313</v>
       </c>
       <c r="J21">
-        <v>0.9983608841557869</v>
+        <v>1.033195934943852</v>
       </c>
       <c r="K21">
-        <v>1.035442261975649</v>
+        <v>1.046770898691306</v>
       </c>
       <c r="L21">
-        <v>1.006793091984759</v>
+        <v>1.040700452607951</v>
       </c>
       <c r="M21">
-        <v>1.022165851176314</v>
+        <v>1.052342520533499</v>
       </c>
       <c r="N21">
-        <v>0.9997786711248821</v>
+        <v>1.034663191680702</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9631718705748871</v>
+        <v>1.025763817376821</v>
       </c>
       <c r="D22">
-        <v>1.018032037651982</v>
+        <v>1.04273770445959</v>
       </c>
       <c r="E22">
-        <v>0.988201230904615</v>
+        <v>1.036461233904973</v>
       </c>
       <c r="F22">
-        <v>1.003726141907536</v>
+        <v>1.048143879406199</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047871658523164</v>
+        <v>1.036830367459673</v>
       </c>
       <c r="J22">
-        <v>0.9956181258254199</v>
+        <v>1.032671066540618</v>
       </c>
       <c r="K22">
-        <v>1.033254544674566</v>
+        <v>1.046420970191946</v>
       </c>
       <c r="L22">
-        <v>1.004010104135009</v>
+        <v>1.040168571074832</v>
       </c>
       <c r="M22">
-        <v>1.019224142841654</v>
+        <v>1.051806667517612</v>
       </c>
       <c r="N22">
-        <v>0.9970320177630875</v>
+        <v>1.034137577904133</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9654433751858726</v>
+        <v>1.0261759561874</v>
       </c>
       <c r="D23">
-        <v>1.019530975953004</v>
+        <v>1.042992171676544</v>
       </c>
       <c r="E23">
-        <v>0.9900387327532838</v>
+        <v>1.036812824575467</v>
       </c>
       <c r="F23">
-        <v>1.005641426831095</v>
+        <v>1.048496763484266</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048476709004974</v>
+        <v>1.036891161874955</v>
       </c>
       <c r="J23">
-        <v>0.9970793534261156</v>
+        <v>1.032949342776208</v>
       </c>
       <c r="K23">
-        <v>1.034421112122386</v>
+        <v>1.046606706554353</v>
       </c>
       <c r="L23">
-        <v>1.005492686717355</v>
+        <v>1.040450578413697</v>
       </c>
       <c r="M23">
-        <v>1.020791706828254</v>
+        <v>1.052090869792421</v>
       </c>
       <c r="N23">
-        <v>0.9984953204745811</v>
+        <v>1.034416249323896</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9741450104429756</v>
+        <v>1.027798925397848</v>
       </c>
       <c r="D24">
-        <v>1.025268292170581</v>
+        <v>1.04399035483464</v>
       </c>
       <c r="E24">
-        <v>0.9970942767843148</v>
+        <v>1.038197362575845</v>
       </c>
       <c r="F24">
-        <v>1.012984764434324</v>
+        <v>1.049884403172275</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050757886882147</v>
+        <v>1.0371249019098</v>
       </c>
       <c r="J24">
-        <v>1.002675982306148</v>
+        <v>1.03404414593511</v>
       </c>
       <c r="K24">
-        <v>1.038865737944082</v>
+        <v>1.047332767427148</v>
       </c>
       <c r="L24">
-        <v>1.011172613057497</v>
+        <v>1.041559773819546</v>
       </c>
       <c r="M24">
-        <v>1.026787626642475</v>
+        <v>1.053206717243293</v>
       </c>
       <c r="N24">
-        <v>1.004099897209565</v>
+        <v>1.035512607228859</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9837880750221013</v>
+        <v>1.029683175231816</v>
       </c>
       <c r="D25">
-        <v>1.03160877634863</v>
+        <v>1.045141116518481</v>
       </c>
       <c r="E25">
-        <v>1.004942427040662</v>
+        <v>1.039804767681118</v>
       </c>
       <c r="F25">
-        <v>1.021129264466064</v>
+        <v>1.051491269790368</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.05320659540438</v>
+        <v>1.037384510816127</v>
       </c>
       <c r="J25">
-        <v>1.008873629814474</v>
+        <v>1.035313059627206</v>
       </c>
       <c r="K25">
-        <v>1.043735451308093</v>
+        <v>1.048164575826532</v>
       </c>
       <c r="L25">
-        <v>1.017464499658004</v>
+        <v>1.042844764078678</v>
       </c>
       <c r="M25">
-        <v>1.03340819718564</v>
+        <v>1.054495288877663</v>
       </c>
       <c r="N25">
-        <v>1.010306346088233</v>
+        <v>1.036783322923944</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_73/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_73/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.031186781413481</v>
+        <v>0.9911522756813617</v>
       </c>
       <c r="D2">
-        <v>1.046052797583158</v>
+        <v>1.036429772357713</v>
       </c>
       <c r="E2">
-        <v>1.041087398513434</v>
+        <v>1.010955478036126</v>
       </c>
       <c r="F2">
-        <v>1.052770118649455</v>
+        <v>1.027348884134133</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037582161836648</v>
+        <v>1.055008920566585</v>
       </c>
       <c r="J2">
-        <v>1.036323893694298</v>
+        <v>1.013600879965572</v>
       </c>
       <c r="K2">
-        <v>1.04881931334453</v>
+        <v>1.047403881905244</v>
       </c>
       <c r="L2">
-        <v>1.043867906631105</v>
+        <v>1.022264266778449</v>
       </c>
       <c r="M2">
-        <v>1.055517932895154</v>
+        <v>1.038439913587678</v>
       </c>
       <c r="N2">
-        <v>1.037795592491356</v>
+        <v>1.015040309476769</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.032278969874602</v>
+        <v>0.9963271151196432</v>
       </c>
       <c r="D3">
-        <v>1.04671115644408</v>
+        <v>1.039802074903438</v>
       </c>
       <c r="E3">
-        <v>1.042019024906488</v>
+        <v>1.015190485872829</v>
       </c>
       <c r="F3">
-        <v>1.053697046378819</v>
+        <v>1.031716847551764</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037720198841322</v>
+        <v>1.056234242047665</v>
       </c>
       <c r="J3">
-        <v>1.037057124431516</v>
+        <v>1.016918409938938</v>
       </c>
       <c r="K3">
-        <v>1.04928963547387</v>
+        <v>1.049949802220804</v>
       </c>
       <c r="L3">
-        <v>1.044609770993168</v>
+        <v>1.025632622121295</v>
       </c>
       <c r="M3">
-        <v>1.056257479956996</v>
+        <v>1.041959372613651</v>
       </c>
       <c r="N3">
-        <v>1.038529864500323</v>
+        <v>1.018362550723223</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.032985894820101</v>
+        <v>0.9996011173592664</v>
       </c>
       <c r="D4">
-        <v>1.047135482121147</v>
+        <v>1.0419275183117</v>
       </c>
       <c r="E4">
-        <v>1.042621996250841</v>
+        <v>1.017873815109686</v>
       </c>
       <c r="F4">
-        <v>1.054296070982885</v>
+        <v>1.034478403621597</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037806978846222</v>
+        <v>1.05698977655472</v>
       </c>
       <c r="J4">
-        <v>1.037531238224884</v>
+        <v>1.019015032102064</v>
       </c>
       <c r="K4">
-        <v>1.049591608701795</v>
+        <v>1.051544938854827</v>
       </c>
       <c r="L4">
-        <v>1.045089329143757</v>
+        <v>1.027761200868264</v>
       </c>
       <c r="M4">
-        <v>1.056734630611375</v>
+        <v>1.04417777819695</v>
       </c>
       <c r="N4">
-        <v>1.039004651589659</v>
+        <v>1.020462150330307</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.033283135601251</v>
+        <v>1.000960404640899</v>
       </c>
       <c r="D5">
-        <v>1.047313465581201</v>
+        <v>1.042807856300243</v>
       </c>
       <c r="E5">
-        <v>1.042875519870378</v>
+        <v>1.01898874118906</v>
       </c>
       <c r="F5">
-        <v>1.054547717948916</v>
+        <v>1.035624358357123</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037842852324987</v>
+        <v>1.057298635246318</v>
       </c>
       <c r="J5">
-        <v>1.037730475053653</v>
+        <v>1.019884903335146</v>
       </c>
       <c r="K5">
-        <v>1.049717992634705</v>
+        <v>1.052203332832796</v>
       </c>
       <c r="L5">
-        <v>1.045290820470777</v>
+        <v>1.02864427220227</v>
       </c>
       <c r="M5">
-        <v>1.056934891925033</v>
+        <v>1.045096718714098</v>
       </c>
       <c r="N5">
-        <v>1.039204171357579</v>
+        <v>1.021333256880315</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.033333046547427</v>
+        <v>1.001187652283202</v>
       </c>
       <c r="D6">
-        <v>1.047343326102271</v>
+        <v>1.042954905235524</v>
       </c>
       <c r="E6">
-        <v>1.042918089603056</v>
+        <v>1.019175185384421</v>
       </c>
       <c r="F6">
-        <v>1.054589959818853</v>
+        <v>1.035815903743077</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037848839909432</v>
+        <v>1.057349984537899</v>
       </c>
       <c r="J6">
-        <v>1.037763923058453</v>
+        <v>1.020030293405833</v>
       </c>
       <c r="K6">
-        <v>1.049739179843321</v>
+        <v>1.052313173141115</v>
       </c>
       <c r="L6">
-        <v>1.045324644995833</v>
+        <v>1.028791864557912</v>
       </c>
       <c r="M6">
-        <v>1.056968497132428</v>
+        <v>1.045250222835647</v>
       </c>
       <c r="N6">
-        <v>1.039237666862381</v>
+        <v>1.021478853421579</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.032989866371071</v>
+        <v>0.9996193464990436</v>
       </c>
       <c r="D7">
-        <v>1.047137861930787</v>
+        <v>1.041939332820431</v>
       </c>
       <c r="E7">
-        <v>1.042625383711304</v>
+        <v>1.017888763815687</v>
       </c>
       <c r="F7">
-        <v>1.054299434222416</v>
+        <v>1.034493774220628</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037807460582956</v>
+        <v>1.056993937774985</v>
       </c>
       <c r="J7">
-        <v>1.037533900754268</v>
+        <v>1.019026700189292</v>
       </c>
       <c r="K7">
-        <v>1.049593299674435</v>
+        <v>1.051553783897824</v>
       </c>
       <c r="L7">
-        <v>1.045092021933024</v>
+        <v>1.027773046271701</v>
       </c>
       <c r="M7">
-        <v>1.056737307822023</v>
+        <v>1.044190110317063</v>
       </c>
       <c r="N7">
-        <v>1.039007317900142</v>
+        <v>1.020473834987557</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.031555849103826</v>
+        <v>0.9929170046669284</v>
       </c>
       <c r="D8">
-        <v>1.046275639171851</v>
+        <v>1.037581417336285</v>
       </c>
       <c r="E8">
-        <v>1.041402215224848</v>
+        <v>1.012398832680466</v>
       </c>
       <c r="F8">
-        <v>1.053083534830746</v>
+        <v>1.028838794193561</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037629337272505</v>
+        <v>1.055430858302416</v>
       </c>
       <c r="J8">
-        <v>1.036571761758477</v>
+        <v>1.014732683834099</v>
       </c>
       <c r="K8">
-        <v>1.048978748017899</v>
+        <v>1.048275294988086</v>
       </c>
       <c r="L8">
-        <v>1.044118721744776</v>
+        <v>1.023413432793001</v>
       </c>
       <c r="M8">
-        <v>1.05576815257797</v>
+        <v>1.039641796712782</v>
       </c>
       <c r="N8">
-        <v>1.038043812556617</v>
+        <v>1.016173720636609</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.029030494255995</v>
+        <v>0.9805014990930994</v>
       </c>
       <c r="D9">
-        <v>1.044743525340819</v>
+        <v>1.029450673097069</v>
       </c>
       <c r="E9">
-        <v>1.03924798886858</v>
+        <v>1.002264252148852</v>
       </c>
       <c r="F9">
-        <v>1.050935195187046</v>
+        <v>1.018353101362361</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037296055344834</v>
+        <v>1.052382449663031</v>
       </c>
       <c r="J9">
-        <v>1.034873792010091</v>
+        <v>1.006762100373232</v>
       </c>
       <c r="K9">
-        <v>1.047877841962531</v>
+        <v>1.042083344382588</v>
       </c>
       <c r="L9">
-        <v>1.042400007565848</v>
+        <v>1.015320699950422</v>
       </c>
       <c r="M9">
-        <v>1.05404980998189</v>
+        <v>1.031155268307465</v>
       </c>
       <c r="N9">
-        <v>1.036343431496428</v>
+        <v>1.008191818032989</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.027347959231008</v>
+        <v>0.9717651284313583</v>
       </c>
       <c r="D10">
-        <v>1.043713627645279</v>
+        <v>1.023700193160365</v>
       </c>
       <c r="E10">
-        <v>1.037812648739889</v>
+        <v>0.9951620459298542</v>
       </c>
       <c r="F10">
-        <v>1.049499151066675</v>
+        <v>1.010975550975036</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03706087357037</v>
+        <v>1.05014014228265</v>
       </c>
       <c r="J10">
-        <v>1.033740105545147</v>
+        <v>1.001145561642548</v>
       </c>
       <c r="K10">
-        <v>1.047131890842365</v>
+        <v>1.037654324100707</v>
       </c>
       <c r="L10">
-        <v>1.041251783410779</v>
+        <v>1.009619204017307</v>
       </c>
       <c r="M10">
-        <v>1.052897202090208</v>
+        <v>1.025149426342426</v>
       </c>
       <c r="N10">
-        <v>1.035208135066668</v>
+        <v>1.002567303173082</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.026619643232138</v>
+        <v>0.9678602629579451</v>
       </c>
       <c r="D11">
-        <v>1.043265676427916</v>
+        <v>1.021125441475571</v>
       </c>
       <c r="E11">
-        <v>1.037191329511544</v>
+        <v>0.9919958202200597</v>
       </c>
       <c r="F11">
-        <v>1.048876434454712</v>
+        <v>1.007680135783702</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036955966051055</v>
+        <v>1.04911634264139</v>
       </c>
       <c r="J11">
-        <v>1.033248803899242</v>
+        <v>0.9986340314956912</v>
       </c>
       <c r="K11">
-        <v>1.046806052258824</v>
+        <v>1.03565966444095</v>
       </c>
       <c r="L11">
-        <v>1.04075402222145</v>
+        <v>1.007070278907069</v>
       </c>
       <c r="M11">
-        <v>1.052396450239042</v>
+        <v>1.022458654962348</v>
       </c>
       <c r="N11">
-        <v>1.034716135716073</v>
+        <v>1.00005220636534</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.026349148643929</v>
+        <v>0.96639028570465</v>
       </c>
       <c r="D12">
-        <v>1.043098988564485</v>
+        <v>1.020155730295418</v>
       </c>
       <c r="E12">
-        <v>1.036960573240409</v>
+        <v>0.9908052567998729</v>
       </c>
       <c r="F12">
-        <v>1.048644995394362</v>
+        <v>1.006440073443991</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036916537946219</v>
+        <v>1.048727831845444</v>
       </c>
       <c r="J12">
-        <v>1.033066251358962</v>
+        <v>0.9976884713219097</v>
       </c>
       <c r="K12">
-        <v>1.046684596284201</v>
+        <v>1.034906704631693</v>
       </c>
       <c r="L12">
-        <v>1.040569045860007</v>
+        <v>1.006110759433295</v>
       </c>
       <c r="M12">
-        <v>1.052210199352007</v>
+        <v>1.021444923199802</v>
       </c>
       <c r="N12">
-        <v>1.034533323930247</v>
+        <v>0.9991053033876541</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.026407169103736</v>
+        <v>0.9667065054914886</v>
       </c>
       <c r="D13">
-        <v>1.043134757177028</v>
+        <v>1.020364350160321</v>
       </c>
       <c r="E13">
-        <v>1.037010069908735</v>
+        <v>0.9910613062211482</v>
       </c>
       <c r="F13">
-        <v>1.048694645926411</v>
+        <v>1.006706809228125</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036925016247346</v>
+        <v>1.048811545775654</v>
       </c>
       <c r="J13">
-        <v>1.033105412268735</v>
+        <v>0.997891882523098</v>
       </c>
       <c r="K13">
-        <v>1.046710668217208</v>
+        <v>1.035068771121926</v>
       </c>
       <c r="L13">
-        <v>1.040608727790104</v>
+        <v>1.006317167695098</v>
       </c>
       <c r="M13">
-        <v>1.052250162070684</v>
+        <v>1.021663029358697</v>
       </c>
       <c r="N13">
-        <v>1.034572540453004</v>
+        <v>0.9993090034560795</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.026597283366612</v>
+        <v>0.9677391600967578</v>
       </c>
       <c r="D14">
-        <v>1.043251904045022</v>
+        <v>1.021045560485182</v>
       </c>
       <c r="E14">
-        <v>1.037172254524914</v>
+        <v>0.9918977084026379</v>
       </c>
       <c r="F14">
-        <v>1.048857306366427</v>
+        <v>1.007577963307078</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036952716306895</v>
+        <v>1.049084397745532</v>
       </c>
       <c r="J14">
-        <v>1.03323371529819</v>
+        <v>0.9985561339379645</v>
       </c>
       <c r="K14">
-        <v>1.046796021333534</v>
+        <v>1.035597673523118</v>
       </c>
       <c r="L14">
-        <v>1.040738733763969</v>
+        <v>1.006991228741944</v>
       </c>
       <c r="M14">
-        <v>1.052381059764815</v>
+        <v>1.022375154759304</v>
       </c>
       <c r="N14">
-        <v>1.034701025687477</v>
+        <v>0.9999741981841459</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.026714423580039</v>
+        <v>0.9683727858902477</v>
       </c>
       <c r="D15">
-        <v>1.043324042540862</v>
+        <v>1.021463491065892</v>
       </c>
       <c r="E15">
-        <v>1.037272185722157</v>
+        <v>0.9924110979970182</v>
       </c>
       <c r="F15">
-        <v>1.048957509049416</v>
+        <v>1.008112563853487</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036969722193182</v>
+        <v>1.049251411959508</v>
       </c>
       <c r="J15">
-        <v>1.03331275891654</v>
+        <v>0.9989637003269904</v>
       </c>
       <c r="K15">
-        <v>1.046848553921634</v>
+        <v>1.035921934605772</v>
       </c>
       <c r="L15">
-        <v>1.04081882338965</v>
+        <v>1.007404830715616</v>
       </c>
       <c r="M15">
-        <v>1.052461677136097</v>
+        <v>1.022812007083636</v>
       </c>
       <c r="N15">
-        <v>1.034780181556832</v>
+        <v>1.000382343364193</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.027396300020935</v>
+        <v>0.9720216106928115</v>
       </c>
       <c r="D16">
-        <v>1.043743314705873</v>
+        <v>1.0238692350504</v>
       </c>
       <c r="E16">
-        <v>1.037853887743985</v>
+        <v>0.9953701932377792</v>
       </c>
       <c r="F16">
-        <v>1.049540459826483</v>
+        <v>1.01119206094109</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03706777127588</v>
+        <v>1.050206950976941</v>
       </c>
       <c r="J16">
-        <v>1.033772703027446</v>
+        <v>1.001310508085399</v>
       </c>
       <c r="K16">
-        <v>1.047153456009062</v>
+        <v>1.037785041316644</v>
       </c>
       <c r="L16">
-        <v>1.041284806146678</v>
+        <v>1.009786621266623</v>
       </c>
       <c r="M16">
-        <v>1.052930400329741</v>
+        <v>1.025326044391075</v>
       </c>
       <c r="N16">
-        <v>1.035240778841132</v>
+        <v>1.002732483858801</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.027824085016654</v>
+        <v>0.9742769450610603</v>
       </c>
       <c r="D17">
-        <v>1.04400577897598</v>
+        <v>1.025355193614787</v>
       </c>
       <c r="E17">
-        <v>1.038218825904592</v>
+        <v>0.9972014499588515</v>
       </c>
       <c r="F17">
-        <v>1.049905889080039</v>
+        <v>1.013096164286683</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037128452908192</v>
+        <v>1.050791988453693</v>
       </c>
       <c r="J17">
-        <v>1.034061104643036</v>
+        <v>1.002760817414189</v>
       </c>
       <c r="K17">
-        <v>1.047343954378875</v>
+        <v>1.038932794837453</v>
       </c>
       <c r="L17">
-        <v>1.041576951764656</v>
+        <v>1.011258726470185</v>
       </c>
       <c r="M17">
-        <v>1.053223972800395</v>
+        <v>1.026878401681395</v>
       </c>
       <c r="N17">
-        <v>1.035529590020096</v>
+        <v>1.004184852793191</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.028073627264476</v>
+        <v>0.9755807633245618</v>
       </c>
       <c r="D18">
-        <v>1.044158677001209</v>
+        <v>1.026213793288434</v>
       </c>
       <c r="E18">
-        <v>1.038431706706463</v>
+        <v>0.9982608773956354</v>
       </c>
       <c r="F18">
-        <v>1.050118950886188</v>
+        <v>1.01419712162588</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03716355099715</v>
+        <v>1.051128150452487</v>
       </c>
       <c r="J18">
-        <v>1.03422928506406</v>
+        <v>1.003599136105606</v>
       </c>
       <c r="K18">
-        <v>1.047454795064471</v>
+        <v>1.039594879967749</v>
       </c>
       <c r="L18">
-        <v>1.041747300096531</v>
+        <v>1.012109698037509</v>
       </c>
       <c r="M18">
-        <v>1.053395047952195</v>
+        <v>1.027775212906172</v>
       </c>
       <c r="N18">
-        <v>1.035698009276608</v>
+        <v>1.005024361993305</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.028158718555416</v>
+        <v>0.9760233857051884</v>
       </c>
       <c r="D19">
-        <v>1.044210778505609</v>
+        <v>1.026505191265124</v>
       </c>
       <c r="E19">
-        <v>1.0385042966912</v>
+        <v>0.9986206608070342</v>
       </c>
       <c r="F19">
-        <v>1.050191584691485</v>
+        <v>1.014570903237505</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037175468225905</v>
+        <v>1.051241919519287</v>
       </c>
       <c r="J19">
-        <v>1.034286623563278</v>
+        <v>1.003883709090684</v>
       </c>
       <c r="K19">
-        <v>1.047492542397838</v>
+        <v>1.039819396833976</v>
       </c>
       <c r="L19">
-        <v>1.041805375091609</v>
+        <v>1.012398574468615</v>
       </c>
       <c r="M19">
-        <v>1.05345335287531</v>
+        <v>1.028079555321033</v>
       </c>
       <c r="N19">
-        <v>1.035755429203072</v>
+        <v>1.005309339104664</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.027778185412041</v>
+        <v>0.9740361856002948</v>
       </c>
       <c r="D20">
-        <v>1.043977638990098</v>
+        <v>1.02519660993791</v>
       </c>
       <c r="E20">
-        <v>1.038179669572031</v>
+        <v>0.9970058804941356</v>
       </c>
       <c r="F20">
-        <v>1.049866690961244</v>
+        <v>1.012892878507065</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037121973003885</v>
+        <v>1.050729746943613</v>
       </c>
       <c r="J20">
-        <v>1.034030165949969</v>
+        <v>1.002606006345979</v>
       </c>
       <c r="K20">
-        <v>1.047323544017372</v>
+        <v>1.03881041863727</v>
       </c>
       <c r="L20">
-        <v>1.041545613018439</v>
+        <v>1.011101582994992</v>
       </c>
       <c r="M20">
-        <v>1.053192491869008</v>
+        <v>1.026712748341708</v>
       </c>
       <c r="N20">
-        <v>1.035498607390536</v>
+        <v>1.004029821875506</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.026541298509595</v>
+        <v>0.9674356186152272</v>
       </c>
       <c r="D21">
-        <v>1.043217415450054</v>
+        <v>1.02084533415224</v>
       </c>
       <c r="E21">
-        <v>1.037124494384061</v>
+        <v>0.9916518156655453</v>
       </c>
       <c r="F21">
-        <v>1.048809410624099</v>
+        <v>1.007321878869565</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036944572043313</v>
+        <v>1.049004279110114</v>
       </c>
       <c r="J21">
-        <v>1.033195934943852</v>
+        <v>0.9983608841557873</v>
       </c>
       <c r="K21">
-        <v>1.046770898691306</v>
+        <v>1.03544226197565</v>
       </c>
       <c r="L21">
-        <v>1.040700452607951</v>
+        <v>1.006793091984759</v>
       </c>
       <c r="M21">
-        <v>1.052342520533499</v>
+        <v>1.022165851176314</v>
       </c>
       <c r="N21">
-        <v>1.034663191680702</v>
+        <v>0.9997786711248823</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.025763817376821</v>
+        <v>0.9631718705748874</v>
       </c>
       <c r="D22">
-        <v>1.04273770445959</v>
+        <v>1.018032037651982</v>
       </c>
       <c r="E22">
-        <v>1.036461233904973</v>
+        <v>0.9882012309046153</v>
       </c>
       <c r="F22">
-        <v>1.048143879406199</v>
+        <v>1.003726141907537</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036830367459673</v>
+        <v>1.047871658523164</v>
       </c>
       <c r="J22">
-        <v>1.032671066540618</v>
+        <v>0.9956181258254202</v>
       </c>
       <c r="K22">
-        <v>1.046420970191946</v>
+        <v>1.033254544674566</v>
       </c>
       <c r="L22">
-        <v>1.040168571074832</v>
+        <v>1.00401010413501</v>
       </c>
       <c r="M22">
-        <v>1.051806667517612</v>
+        <v>1.019224142841655</v>
       </c>
       <c r="N22">
-        <v>1.034137577904133</v>
+        <v>0.9970320177630877</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.0261759561874</v>
+        <v>0.9654433751858724</v>
       </c>
       <c r="D23">
-        <v>1.042992171676544</v>
+        <v>1.019530975953004</v>
       </c>
       <c r="E23">
-        <v>1.036812824575467</v>
+        <v>0.9900387327532836</v>
       </c>
       <c r="F23">
-        <v>1.048496763484266</v>
+        <v>1.005641426831096</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036891161874955</v>
+        <v>1.048476709004974</v>
       </c>
       <c r="J23">
-        <v>1.032949342776208</v>
+        <v>0.9970793534261154</v>
       </c>
       <c r="K23">
-        <v>1.046606706554353</v>
+        <v>1.034421112122386</v>
       </c>
       <c r="L23">
-        <v>1.040450578413697</v>
+        <v>1.005492686717355</v>
       </c>
       <c r="M23">
-        <v>1.052090869792421</v>
+        <v>1.020791706828254</v>
       </c>
       <c r="N23">
-        <v>1.034416249323896</v>
+        <v>0.9984953204745807</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.027798925397848</v>
+        <v>0.9741450104429751</v>
       </c>
       <c r="D24">
-        <v>1.04399035483464</v>
+        <v>1.025268292170581</v>
       </c>
       <c r="E24">
-        <v>1.038197362575845</v>
+        <v>0.9970942767843142</v>
       </c>
       <c r="F24">
-        <v>1.049884403172275</v>
+        <v>1.012984764434324</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.0371249019098</v>
+        <v>1.050757886882147</v>
       </c>
       <c r="J24">
-        <v>1.03404414593511</v>
+        <v>1.002675982306147</v>
       </c>
       <c r="K24">
-        <v>1.047332767427148</v>
+        <v>1.038865737944081</v>
       </c>
       <c r="L24">
-        <v>1.041559773819546</v>
+        <v>1.011172613057497</v>
       </c>
       <c r="M24">
-        <v>1.053206717243293</v>
+        <v>1.026787626642474</v>
       </c>
       <c r="N24">
-        <v>1.035512607228859</v>
+        <v>1.004099897209564</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.029683175231816</v>
+        <v>0.9837880750221013</v>
       </c>
       <c r="D25">
-        <v>1.045141116518481</v>
+        <v>1.031608776348631</v>
       </c>
       <c r="E25">
-        <v>1.039804767681118</v>
+        <v>1.004942427040662</v>
       </c>
       <c r="F25">
-        <v>1.051491269790368</v>
+        <v>1.021129264466064</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037384510816127</v>
+        <v>1.05320659540438</v>
       </c>
       <c r="J25">
-        <v>1.035313059627206</v>
+        <v>1.008873629814474</v>
       </c>
       <c r="K25">
-        <v>1.048164575826532</v>
+        <v>1.043735451308093</v>
       </c>
       <c r="L25">
-        <v>1.042844764078678</v>
+        <v>1.017464499658004</v>
       </c>
       <c r="M25">
-        <v>1.054495288877663</v>
+        <v>1.03340819718564</v>
       </c>
       <c r="N25">
-        <v>1.036783322923944</v>
+        <v>1.010306346088233</v>
       </c>
     </row>
   </sheetData>
